--- a/templates/report/reservas.xlsx
+++ b/templates/report/reservas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047B683E-3AEE-4567-99C8-A9B91DCFF2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B932F-4458-4AE5-839A-451CF895C866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -155,207 +155,6 @@
   </si>
   <si>
     <t>Firmante</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking_channel.Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Booking_referral.Name </t>
-  </si>
-  <si>
-    <t>Booking_who.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agent.Name </t>
-  </si>
-  <si>
-    <t>Agent_type.Name</t>
-  </si>
-  <si>
-    <t>Date_from</t>
-  </si>
-  <si>
-    <t>Date_to</t>
-  </si>
-  <si>
-    <t>Check_in</t>
-  </si>
-  <si>
-    <t>Check_out</t>
-  </si>
-  <si>
-    <t>Request_date</t>
-  </si>
-  <si>
-    <t>Confirmation_date</t>
-  </si>
-  <si>
-    <t>Expiry_date</t>
-  </si>
-  <si>
-    <t>Cancel_date</t>
-  </si>
-  <si>
-    <t>Contract_signed</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Limit</t>
-  </si>
-  <si>
-    <t>Booking_fee</t>
-  </si>
-  <si>
-    <t>Booking_fee_actual</t>
-  </si>
-  <si>
-    <t>Booking_fee_returned</t>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <t>Deposit_actual</t>
-  </si>
-  <si>
-    <t>Deposit_returned</t>
-  </si>
-  <si>
-    <t>Cancelation_fee</t>
-  </si>
-  <si>
-    <t>Link_id</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Second_resident</t>
-  </si>
-  <si>
-    <t>Lock</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-  </si>
-  <si>
-    <t>Flight</t>
-  </si>
-  <si>
-    <t>Checkin_option.Name</t>
-  </si>
-  <si>
-    <t>Building.Code</t>
-  </si>
-  <si>
-    <t>Building.Name</t>
-  </si>
-  <si>
-    <t>Building.Address</t>
-  </si>
-  <si>
-    <t>Building.District.Location.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat_type.Code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flat_type.Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place_type.Code </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Place_type.Name </t>
-  </si>
-  <si>
-    <t>Reason.Name</t>
-  </si>
-  <si>
-    <t>School.Name</t>
-  </si>
-  <si>
-    <t>Resource.Building.Code</t>
-  </si>
-  <si>
-    <t>Resource.Building.Address</t>
-  </si>
-  <si>
-    <t>Resource.Building.District.Location.Name</t>
-  </si>
-  <si>
-    <t>Resource.Flat.Code</t>
-  </si>
-  <si>
-    <t>Resource.Flat.Address</t>
-  </si>
-  <si>
-    <t>Resource.Code</t>
-  </si>
-  <si>
-    <t>Resource.Address</t>
-  </si>
-  <si>
-    <t>Resource.Resource_type</t>
-  </si>
-  <si>
-    <t>Resource.Part</t>
-  </si>
-  <si>
-    <t>Resource.Owner.Name</t>
-  </si>
-  <si>
-    <t>Resource.Services.Name</t>
-  </si>
-  <si>
-    <t>Customer.Type</t>
-  </si>
-  <si>
-    <t>Customer.Id_type.Name</t>
-  </si>
-  <si>
-    <t>Customer.Document</t>
-  </si>
-  <si>
-    <t>Customer.Name</t>
-  </si>
-  <si>
-    <t>Customer.Address</t>
-  </si>
-  <si>
-    <t>Customer.Zip</t>
-  </si>
-  <si>
-    <t>Customer.City</t>
-  </si>
-  <si>
-    <t>Customer.Province</t>
-  </si>
-  <si>
-    <t>Customer.Country.Name</t>
-  </si>
-  <si>
-    <t>Customer.Email</t>
-  </si>
-  <si>
-    <t>Customer.Birth_date</t>
-  </si>
-  <si>
-    <t>Customer.Signer_name</t>
-  </si>
-  <si>
-    <t>Customer.Signer_id_type.Name</t>
-  </si>
-  <si>
-    <t>Customer.Signer_document</t>
   </si>
   <si>
     <t>.</t>
@@ -388,6 +187,27 @@
   <si>
     <t>Motivo
 estancia</t>
+  </si>
+  <si>
+    <t>Datos generales</t>
+  </si>
+  <si>
+    <t>Fechas</t>
+  </si>
+  <si>
+    <t>Importes</t>
+  </si>
+  <si>
+    <t>Otros datos</t>
+  </si>
+  <si>
+    <t>Checkin</t>
+  </si>
+  <si>
+    <t>Solicitud</t>
+  </si>
+  <si>
+    <t>Reserva</t>
   </si>
 </sst>
 </file>
@@ -410,12 +230,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -429,8 +243,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +265,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FF008E84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -458,27 +296,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD1FFFC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -547,6 +421,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF008E84"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -903,421 +780,373 @@
     <col min="70" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>113</v>
+    <row r="1" spans="1:68" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="BC2" s="3" t="s">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+      <c r="AE2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="BD2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP2" s="3"/>
+      <c r="BD2" s="7"/>
+      <c r="BE2" s="7"/>
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
     </row>
-    <row r="3" spans="1:68" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="L3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AH3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>86</v>
+      <c r="AQ3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="AT3" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="AU3" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="AY3" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="AZ3" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="BA3" s="2" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BC3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="BN3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="BO3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="BP3" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3" s="5"/>
+      <c r="BF3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="BH3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BI3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="BN3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="BO3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP3" s="5"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4:BP4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN($C4)=12</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/report/reservas.xlsx
+++ b/templates/report/reservas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879B932F-4458-4AE5-839A-451CF895C866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CFD5B-3B28-4452-8BF1-A33B282AC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,7 +250,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,28 +281,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -313,16 +296,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -331,9 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -780,96 +757,96 @@
     <col min="70" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="7" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="6" t="s">
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="7" t="s">
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="6" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="7" t="s">
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
+      <c r="BB2" s="5"/>
+      <c r="BC2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
     </row>
     <row r="3" spans="1:68" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -893,31 +870,31 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -950,16 +927,16 @@
       <c r="Z3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AC3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AE3" s="2" t="s">
@@ -971,30 +948,30 @@
       <c r="AG3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AL3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5" t="s">
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5" t="s">
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AR3" s="2" t="s">
@@ -1030,116 +1007,49 @@
       <c r="BB3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="BC3" s="5" t="s">
+      <c r="BC3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BD3" s="5" t="s">
+      <c r="BD3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5" t="s">
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BG3" s="5" t="s">
+      <c r="BG3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="5" t="s">
+      <c r="BH3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="BI3" s="5" t="s">
+      <c r="BI3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BJ3" s="5" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="BK3" s="5" t="s">
+      <c r="BK3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BL3" s="5" t="s">
+      <c r="BL3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="BM3" s="5" t="s">
+      <c r="BM3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BN3" s="5" t="s">
+      <c r="BN3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BO3" s="5" t="s">
+      <c r="BO3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BP3" s="5"/>
+      <c r="BP3" s="4"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:BP4">

--- a/templates/report/reservas.xlsx
+++ b/templates/report/reservas.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8CFD5B-3B28-4452-8BF1-A33B282AC109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212236AD-05EA-48CE-A02C-A49B7804ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -155,9 +168,6 @@
   </si>
   <si>
     <t>Firmante</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>Reservas</t>
@@ -208,6 +218,9 @@
   </si>
   <si>
     <t>Reserva</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -250,7 +263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,11 +294,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -296,7 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -312,6 +362,15 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -759,12 +818,12 @@
   <sheetData>
     <row r="1" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -773,7 +832,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -784,7 +843,7 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -796,18 +855,18 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
       <c r="AE2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
       <c r="AH2" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AI2" s="6"/>
       <c r="AJ2" s="6"/>
@@ -819,7 +878,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
@@ -877,22 +936,22 @@
         <v>8</v>
       </c>
       <c r="J3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>11</v>
@@ -907,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>15</v>
@@ -916,7 +975,7 @@
         <v>16</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>17</v>
@@ -946,7 +1005,7 @@
         <v>25</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AH3" s="4" t="s">
         <v>26</v>
@@ -969,7 +1028,7 @@
       </c>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AQ3" s="4" t="s">
         <v>31</v>
@@ -1047,9 +1106,94 @@
       <c r="BP3" s="4"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:BP4">

--- a/templates/report/reservas.xlsx
+++ b/templates/report/reservas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212236AD-05EA-48CE-A02C-A49B7804ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D387E615-5D50-4D4C-9896-504C794C8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reservas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Reservas!$A$3:$BP$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1196,6 +1199,7 @@
       <c r="BP4" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:BP3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A4:BP4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN($C4)=12</formula>
